--- a/Finflux Automation Excels/Client/5046-CompondingPenalityCharge-MoraoriumOnPrinciple2-Disb2ndTranche.xlsx
+++ b/Finflux Automation Excels/Client/5046-CompondingPenalityCharge-MoraoriumOnPrinciple2-Disb2ndTranche.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Modify Transaction" sheetId="1" r:id="rId1"/>
@@ -668,7 +668,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,22 +698,22 @@
         <v>10000</v>
       </c>
       <c r="B2" s="7">
-        <v>2976.61</v>
+        <v>2977.84</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8">
         <v>0</v>
       </c>
       <c r="E2" s="7">
-        <v>7023.39</v>
+        <v>7022.16</v>
       </c>
       <c r="F2" s="8">
-        <v>48.05</v>
+        <v>46.82</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <v>512.07000000000005</v>
+        <v>512.05999999999995</v>
       </c>
       <c r="B3" s="8">
         <v>232.53</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="8">
-        <v>279.54000000000002</v>
+        <v>279.52999999999997</v>
       </c>
       <c r="F3" s="8">
         <v>8.2799999999999994</v>
@@ -753,10 +753,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
-        <v>1.83</v>
+        <v>0.59</v>
       </c>
       <c r="B5" s="8">
-        <v>1.46</v>
+        <v>0.23</v>
       </c>
       <c r="C5" s="8">
         <v>0</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="8">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="F5" s="8">
         <v>0</v>
@@ -781,7 +781,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,10 +951,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="8">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="G8" s="7">
-        <v>1056.28</v>
+        <v>1055.05</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="F9" s="8">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="G9" s="7">
-        <v>1055.42</v>
+        <v>1055.4100000000001</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1128,7 +1128,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1455,10 +1455,10 @@
         <v>0</v>
       </c>
       <c r="J8" s="8">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="K8" s="7">
-        <v>1056.28</v>
+        <v>1055.05</v>
       </c>
       <c r="L8" s="8">
         <v>999.95</v>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="P8" s="8"/>
       <c r="Q8" s="8">
-        <v>56.33</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -1488,22 +1488,22 @@
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8">
-        <v>983.55</v>
+        <v>983.56</v>
       </c>
       <c r="G9" s="7">
-        <v>5983.51</v>
+        <v>5983.5</v>
       </c>
       <c r="H9" s="8">
-        <v>71.5</v>
+        <v>71.489999999999995</v>
       </c>
       <c r="I9" s="8">
         <v>0</v>
       </c>
       <c r="J9" s="8">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="K9" s="7">
-        <v>1055.42</v>
+        <v>1055.4100000000001</v>
       </c>
       <c r="L9" s="8">
         <v>0</v>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="P9" s="8"/>
       <c r="Q9" s="7">
-        <v>1055.42</v>
+        <v>1055.4100000000001</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -1536,7 +1536,7 @@
         <v>996.05</v>
       </c>
       <c r="G10" s="7">
-        <v>4987.46</v>
+        <v>4987.45</v>
       </c>
       <c r="H10" s="8">
         <v>59</v>
@@ -1581,7 +1581,7 @@
         <v>1004.23</v>
       </c>
       <c r="G11" s="7">
-        <v>3983.23</v>
+        <v>3983.22</v>
       </c>
       <c r="H11" s="8">
         <v>50.82</v>
@@ -1626,7 +1626,7 @@
         <v>1015.78</v>
       </c>
       <c r="G12" s="7">
-        <v>2967.45</v>
+        <v>2967.44</v>
       </c>
       <c r="H12" s="8">
         <v>39.270000000000003</v>
@@ -1671,7 +1671,7 @@
         <v>1024.82</v>
       </c>
       <c r="G13" s="7">
-        <v>1942.63</v>
+        <v>1942.62</v>
       </c>
       <c r="H13" s="8">
         <v>30.23</v>
@@ -1716,7 +1716,7 @@
         <v>1035.26</v>
       </c>
       <c r="G14" s="8">
-        <v>907.37</v>
+        <v>907.36</v>
       </c>
       <c r="H14" s="8">
         <v>19.79</v>
@@ -1758,7 +1758,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8">
-        <v>907.37</v>
+        <v>907.36</v>
       </c>
       <c r="G15" s="8">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="8">
-        <v>916.3</v>
+        <v>916.29</v>
       </c>
       <c r="L15" s="8">
         <v>0</v>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="P15" s="8"/>
       <c r="Q15" s="8">
-        <v>916.3</v>
+        <v>916.29</v>
       </c>
     </row>
   </sheetData>
@@ -1799,8 +1799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1842,7 +1842,7 @@
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
-        <v>244</v>
+        <v>591</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>35</v>
@@ -1854,19 +1854,19 @@
         <v>36</v>
       </c>
       <c r="E2" s="8">
-        <v>71.48</v>
+        <v>71.47</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="7">
-        <v>7085.65</v>
+        <v>7084.41</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <v>243</v>
+        <v>590</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>35</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
-        <v>237</v>
+        <v>584</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>35</v>
@@ -1902,7 +1902,7 @@
         <v>37</v>
       </c>
       <c r="E4" s="8">
-        <v>20.38</v>
+        <v>20.37</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
-        <v>242</v>
+        <v>589</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>35</v>
@@ -1926,19 +1926,19 @@
         <v>36</v>
       </c>
       <c r="E5" s="8">
-        <v>40.880000000000003</v>
+        <v>39.65</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="7">
-        <v>7014.17</v>
+        <v>7012.94</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
-        <v>241</v>
+        <v>588</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>35</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
-        <v>235</v>
+        <v>582</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>35</v>
@@ -1974,7 +1974,7 @@
         <v>37</v>
       </c>
       <c r="E7" s="8">
-        <v>26.09</v>
+        <v>24.86</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
-        <v>239</v>
+        <v>586</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>35</v>
@@ -2010,7 +2010,7 @@
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
-        <v>240</v>
+        <v>587</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>35</v>
@@ -2034,7 +2034,7 @@
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
-        <v>229</v>
+        <v>576</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>35</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
-        <v>228</v>
+        <v>575</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>35</v>
@@ -2082,7 +2082,7 @@
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
-        <v>227</v>
+        <v>574</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>35</v>
@@ -2106,7 +2106,7 @@
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
-        <v>220</v>
+        <v>567</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>35</v>
@@ -2130,7 +2130,7 @@
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
-        <v>213</v>
+        <v>560</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>35</v>
@@ -2154,7 +2154,7 @@
     </row>
     <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
-        <v>212</v>
+        <v>559</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>35</v>
@@ -2178,7 +2178,7 @@
     </row>
     <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
-        <v>211</v>
+        <v>558</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>35</v>
@@ -2202,7 +2202,7 @@
     </row>
     <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
-        <v>202</v>
+        <v>549</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>35</v>
@@ -2226,7 +2226,7 @@
     </row>
     <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
-        <v>201</v>
+        <v>548</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>35</v>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
-        <v>200</v>
+        <v>547</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>35</v>
@@ -2274,7 +2274,7 @@
     </row>
     <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
-        <v>189</v>
+        <v>536</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>35</v>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
-        <v>188</v>
+        <v>535</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>35</v>
@@ -2322,7 +2322,7 @@
     </row>
     <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
-        <v>187</v>
+        <v>534</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>35</v>
@@ -2353,7 +2353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
